--- a/examples/siyuanhuhao/Calibration/Thrust.xlsx
+++ b/examples/siyuanhuhao/Calibration/Thrust.xlsx
@@ -55,11 +55,11 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,29 +77,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,8 +100,59 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,7 +160,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,30 +182,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,14 +197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -197,23 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,7 +221,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +245,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,7 +269,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,31 +299,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,25 +317,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,25 +341,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,13 +359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,13 +371,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,13 +395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,6 +434,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -461,22 +463,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,21 +493,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -519,150 +501,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3831,7 +3824,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0958018405943938"/>
+          <c:y val="0.18531746031746"/>
+          <c:w val="0.8495"/>
+          <c:h val="0.607268518518518"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
@@ -3957,49 +3960,6 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet9!$A$2:$A$5</c:f>
@@ -4043,6 +4003,166 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="405582095"/>
+        <c:axId val="687502673"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smooth"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"EK+"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EK+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet9!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet9!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.019574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.018704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.016442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.014702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"EK-"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EK-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet9!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet9!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.008493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.008128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.007179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.006449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7768,15 +7888,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:colOff>212725</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7784,8 +7904,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5661025" y="711200"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="5651500" y="720725"/>
+        <a:ext cx="6267450" cy="4800600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8990,7 +9110,7 @@
         <v>1.9</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C16" si="0">B2*9.81</f>
+        <f t="shared" ref="C2:C17" si="0">B2*9.81</f>
         <v>18.639</v>
       </c>
       <c r="D2" s="3">
@@ -9230,7 +9350,7 @@
         <v>50.5</v>
       </c>
       <c r="C17">
-        <f>B17*9.81</f>
+        <f t="shared" si="0"/>
         <v>495.405</v>
       </c>
       <c r="D17" s="3">
@@ -9278,7 +9398,7 @@
         <v>3.5</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C16" si="0">B2*9.81</f>
+        <f t="shared" ref="C2:C18" si="0">B2*9.81</f>
         <v>34.335</v>
       </c>
       <c r="D2" s="3">
@@ -9298,7 +9418,7 @@
         <v>55.917</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D16" si="1">0.014*POWER(A3,2)</f>
+        <f t="shared" ref="D3:D18" si="1">0.014*POWER(A3,2)</f>
         <v>50.4</v>
       </c>
     </row>
@@ -9518,11 +9638,11 @@
         <v>49.5</v>
       </c>
       <c r="C17">
-        <f>B17*9.81</f>
+        <f t="shared" si="0"/>
         <v>485.595</v>
       </c>
       <c r="D17" s="3">
-        <f>0.014*POWER(A17,2)</f>
+        <f t="shared" si="1"/>
         <v>560</v>
       </c>
     </row>
@@ -9534,11 +9654,11 @@
         <v>50</v>
       </c>
       <c r="C18">
-        <f>B18*9.81</f>
+        <f t="shared" si="0"/>
         <v>490.5</v>
       </c>
       <c r="D18" s="3">
-        <f>0.014*POWER(A18,2)</f>
+        <f t="shared" si="1"/>
         <v>617.4</v>
       </c>
     </row>
@@ -9558,7 +9678,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="4"/>
